--- a/book/[[ 입출금 내역서 ]]/구글스프레드시트 파일/황악회원 입금현황.xlsx
+++ b/book/[[ 입출금 내역서 ]]/구글스프레드시트 파일/황악회원 입금현황.xlsx
@@ -1,34 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28314"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsj\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FB1E89-7344-4CBF-8A98-6EF28EC1516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="입금내역" sheetId="1" r:id="rId1"/>
-    <sheet name="항목" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet state="visible" name="입금내역" sheetId="1" r:id="rId4"/>
+    <sheet state="hidden" name="항목" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="wYqjzlgwktwgYL8JMegS7QP0XutDJEQXGZe6Dg+Qpvs="/>
     </ext>
@@ -170,21 +150,17 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="맑은 고딕"/>
         <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="12.0"/>
       </rPr>
       <t xml:space="preserve">[알림] </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11.0"/>
       </rPr>
       <t>입금내역 시트에서 개별납입금액 셀은 =COUNTIF(C5:N5, "O") * 항목!$B$4</t>
     </r>
@@ -202,119 +178,76 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="20.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
+    </font>
+    <font/>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="16.0"/>
       <color rgb="FF0070C0"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FFFF0000"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="16.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -322,12 +255,12 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF747474"/>
-        <bgColor rgb="FF747474"/>
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
@@ -338,33 +271,20 @@
     </fill>
   </fills>
   <borders count="7">
+    <border/>
     <border>
       <left/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -379,10 +299,8 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -392,7 +310,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -401,106 +318,111 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" readingOrder="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="1" textRotation="255" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -509,31 +431,63 @@
       <fill>
         <patternFill patternType="none"/>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="876300" cy="419100"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4912613" y="3575213"/>
+          <a:ext cx="866775" cy="409575"/>
+          <a:chOff x="4912613" y="3575213"/>
+          <a:chExt cx="866775" cy="409575"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4912613" y="3575213"/>
+            <a:ext cx="866775" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -544,26 +498,16 @@
     <xdr:ext cx="304800" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="161925" y="1162050"/>
-          <a:ext cx="304800" cy="180975"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -582,26 +526,16 @@
     <xdr:ext cx="180975" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image2.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="1028700"/>
-          <a:ext cx="180975" cy="171450"/>
-        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -610,61 +544,15 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="직선 연결선 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4C7F37-3C8C-BABF-1AE7-D1D7DED17A26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104775" y="971550"/>
-          <a:ext cx="714375" cy="409575"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -854,793 +742,755 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T11" sqref="T11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" customWidth="1"/>
-    <col min="18" max="26" width="7.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="1.25"/>
+    <col customWidth="1" min="2" max="2" width="11.5"/>
+    <col customWidth="1" min="3" max="4" width="7.38"/>
+    <col customWidth="1" min="5" max="14" width="5.88"/>
+    <col customWidth="1" min="15" max="15" width="13.88"/>
+    <col customWidth="1" min="16" max="16" width="9.5"/>
+    <col customWidth="1" min="17" max="17" width="18.63"/>
+    <col customWidth="1" min="18" max="26" width="6.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="9.75" customHeight="1"/>
-    <row r="2" spans="1:18" ht="42" customHeight="1">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="22" t="s">
+    <row r="1" ht="9.75" customHeight="1"/>
+    <row r="2" ht="42.0" customHeight="1">
+      <c r="B2" s="1"/>
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="27" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-    </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-    </row>
-    <row r="5" spans="1:18" ht="33" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="3" ht="12.0" customHeight="1">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" ht="33.0" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11">
-        <f>COUNTIF(C6:N6, "O") * 항목!$B$4</f>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17">
+        <f>COUNTIF(C6:N6, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P6" s="12">
-        <f t="shared" ref="P6:P26" ca="1" si="0">COUNTIF($C6:INDEX($C6:$N6, MONTH(TODAY())-1), "&lt;&gt;O")</f>
+      <c r="P6" s="18">
+        <f t="shared" ref="P6:P26" si="1">COUNTIF($C6:INDEX($C6:$N6, MONTH(TODAY())-1), "&lt;&gt;O")</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="14" t="s">
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="11">
-        <f>COUNTIF(C7:N7, "O") * 항목!$B$4</f>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17">
+        <f>COUNTIF(C7:N7, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P7" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P7" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11">
-        <f>COUNTIF(C8:N8, "O") * 항목!$B$4</f>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17">
+        <f>COUNTIF(C8:N8, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P8" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P8" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="14" t="s">
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11">
-        <f>COUNTIF(C9:N9, "O") * 항목!$B$4</f>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17">
+        <f>COUNTIF(C9:N9, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P9" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P9" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="14" t="s">
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11">
-        <f>COUNTIF(C10:N10, "O") * 항목!$B$4</f>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17">
+        <f>COUNTIF(C10:N10, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P10" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P10" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="14" t="s">
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11">
-        <f>COUNTIF(C11:N11, "O") * 항목!$B$4</f>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17">
+        <f>COUNTIF(C11:N11, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P11" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P11" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="14" t="s">
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="11">
-        <f>COUNTIF(C12:N12, "O") * 항목!$B$4</f>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17">
+        <f>COUNTIF(C12:N12, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P12" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P12" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="14" t="s">
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11">
-        <f>COUNTIF(C13:N13, "O") * 항목!$B$4</f>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17">
+        <f>COUNTIF(C13:N13, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P13" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P13" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="14" t="s">
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11">
-        <f>COUNTIF(C14:N14, "O") * 항목!$B$4</f>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17">
+        <f>COUNTIF(C14:N14, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P14" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P14" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="14" t="s">
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11">
-        <f>COUNTIF(C15:N15, "O") * 항목!$B$4</f>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17">
+        <f>COUNTIF(C15:N15, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P15" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P15" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:18" ht="19.5" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="14" t="s">
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11">
-        <f>COUNTIF(C16:N16, "O") * 항목!$B$4</f>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17">
+        <f>COUNTIF(C16:N16, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P16" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P16" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="14" t="s">
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11">
-        <f>COUNTIF(C17:N17, "O") * 항목!$B$4</f>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17">
+        <f>COUNTIF(C17:N17, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P17" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P17" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="14" t="s">
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11">
-        <f>COUNTIF(C18:N18, "O") * 항목!$B$4</f>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17">
+        <f>COUNTIF(C18:N18, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P18" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P18" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="14" t="s">
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11">
-        <f>COUNTIF(C19:N19, "O") * 항목!$B$4</f>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17">
+        <f>COUNTIF(C19:N19, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P19" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P19" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="14" t="s">
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11">
-        <f>COUNTIF(C20:N20, "O") * 항목!$B$4</f>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17">
+        <f>COUNTIF(C20:N20, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P20" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P20" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="14" t="s">
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11">
-        <f>COUNTIF(C21:N21, "O") * 항목!$B$4</f>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17">
+        <f>COUNTIF(C21:N21, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P21" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P21" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="14" t="s">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="11">
-        <f>COUNTIF(C22:N22, "O") * 항목!$B$4</f>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17">
+        <f>COUNTIF(C22:N22, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P22" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P22" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="14" t="s">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11">
-        <f>COUNTIF(C23:N23, "O") * 항목!$B$4</f>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17">
+        <f>COUNTIF(C23:N23, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P23" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P23" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="14" t="s">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="11">
-        <f>COUNTIF(C24:N24, "O") * 항목!$B$4</f>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17">
+        <f>COUNTIF(C24:N24, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P24" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P24" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="14" t="s">
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="11">
-        <f>COUNTIF(C25:N25, "O") * 항목!$B$4</f>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17">
+        <f>COUNTIF(C25:N25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P25" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P25" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="14" t="s">
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11">
-        <f>COUNTIF(C26:N26, "O") * 항목!$B$4</f>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17">
+        <f>COUNTIF(C26:N26, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P26" s="12">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P26" s="18">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:17" ht="34.5" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" ht="34.5" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="15">
-        <f>COUNTIF(C6:C25, "O") * 항목!$B$4</f>
+      <c r="C27" s="21">
+        <f>COUNTIF(C6:C25, "O") * '항목'!$B$4</f>
         <v>60000</v>
       </c>
-      <c r="D27" s="15">
-        <f>COUNTIF(D6:D25, "O") * 항목!$B$4</f>
+      <c r="D27" s="21">
+        <f>COUNTIF(D6:D25, "O") * '항목'!$B$4</f>
         <v>20000</v>
       </c>
-      <c r="E27" s="15">
-        <f>COUNTIF(E6:E25, "O") * 항목!$B$4</f>
+      <c r="E27" s="21">
+        <f>COUNTIF(E6:E25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="F27" s="15">
-        <f>COUNTIF(F6:F25, "O") * 항목!$B$4</f>
+      <c r="F27" s="21">
+        <f>COUNTIF(F6:F25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="G27" s="15">
-        <f>COUNTIF(G6:G25, "O") * 항목!$B$4</f>
+      <c r="G27" s="21">
+        <f>COUNTIF(G6:G25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="H27" s="15">
-        <f>COUNTIF(H6:H25, "O") * 항목!$B$4</f>
+      <c r="H27" s="21">
+        <f>COUNTIF(H6:H25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="I27" s="15">
-        <f>COUNTIF(I6:I25, "O") * 항목!$B$4</f>
+      <c r="I27" s="21">
+        <f>COUNTIF(I6:I25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="J27" s="15">
-        <f>COUNTIF(J6:J25, "O") * 항목!$B$4</f>
+      <c r="J27" s="21">
+        <f>COUNTIF(J6:J25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K27" s="15">
-        <f>COUNTIF(K6:K25, "O") * 항목!$B$4</f>
+      <c r="K27" s="21">
+        <f>COUNTIF(K6:K25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="L27" s="15">
-        <f>COUNTIF(L6:L25, "O") * 항목!$B$4</f>
+      <c r="L27" s="21">
+        <f>COUNTIF(L6:L25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="M27" s="15">
-        <f>COUNTIF(M6:M25, "O") * 항목!$B$4</f>
+      <c r="M27" s="21">
+        <f>COUNTIF(M6:M25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="N27" s="15">
-        <f>COUNTIF(N6:N25, "O") * 항목!$B$4</f>
+      <c r="N27" s="21">
+        <f>COUNTIF(N6:N25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="O27" s="16">
-        <f>COUNTIF(C27:N27, "O") * 항목!$B$4</f>
+      <c r="O27" s="22">
+        <f>COUNTIF(C27:N27, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="29" spans="1:17" ht="16.5" customHeight="1"/>
-    <row r="30" spans="1:17" ht="16.5" customHeight="1">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" customHeight="1">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" ht="16.5" customHeight="1"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -2612,117 +2462,121 @@
     <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:L2"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="B3:Q3"/>
     <mergeCell ref="B4:Q4"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="C6:N26">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>C6="X"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:N26">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>C6="O"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C6:N26" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C6:N26">
       <formula1>"O,X"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:C1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="26" width="7.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="1.5"/>
+    <col customWidth="1" min="2" max="2" width="9.5"/>
+    <col customWidth="1" min="3" max="26" width="6.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="11.25" customHeight="1"/>
-    <row r="2" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="3" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B3" s="6" t="s">
+    <row r="1" ht="11.25" customHeight="1"/>
+    <row r="2" ht="16.5" customHeight="1"/>
+    <row r="3" ht="16.5" customHeight="1">
+      <c r="B3" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B4" s="18">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B5" s="18">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="7" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="8" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="9" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="10" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B10" s="6" t="s">
+    <row r="4" ht="16.5" customHeight="1">
+      <c r="B4" s="24">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1">
+      <c r="B5" s="24">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1"/>
+    <row r="7" ht="16.5" customHeight="1"/>
+    <row r="8" ht="16.5" customHeight="1"/>
+    <row r="9" ht="16.5" customHeight="1"/>
+    <row r="10" ht="16.5" customHeight="1">
+      <c r="B10" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B11" s="19" t="s">
+    <row r="11" ht="16.5" customHeight="1">
+      <c r="B11" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="16.5" customHeight="1">
-      <c r="B12" s="19" t="s">
+    <row r="12" ht="16.5" customHeight="1">
+      <c r="B12" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="14" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="15" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="16" spans="2:2" ht="16.5" customHeight="1"/>
-    <row r="17" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="18" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="19" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C19" s="20" t="s">
+    <row r="13" ht="16.5" customHeight="1"/>
+    <row r="14" ht="16.5" customHeight="1"/>
+    <row r="15" ht="16.5" customHeight="1"/>
+    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1">
+      <c r="C19" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C20" s="21" t="s">
+    <row r="20" ht="16.5" customHeight="1">
+      <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C21" s="21" t="s">
+    <row r="21" ht="16.5" customHeight="1">
+      <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C22" s="21" t="s">
+    <row r="22" ht="16.5" customHeight="1">
+      <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="24" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="25" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="26" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="27" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="28" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="29" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="30" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="31" spans="3:3" ht="16.5" customHeight="1"/>
-    <row r="32" spans="3:3" ht="16.5" customHeight="1"/>
+    <row r="23" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="25" ht="16.5" customHeight="1"/>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
     <row r="33" ht="16.5" customHeight="1"/>
     <row r="34" ht="16.5" customHeight="1"/>
     <row r="35" ht="16.5" customHeight="1"/>
@@ -3692,8 +3546,9 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>